--- a/PES/Office file/Tax Period (2023 to 2024).xlsx
+++ b/PES/Office file/Tax Period (2023 to 2024).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Office file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AFCC8F-DB2C-4939-AE71-F0D524B278A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B45763A-8208-4229-85C4-495326538C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A61253C-2AED-4507-BE01-00FD5A7BD7B4}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Posting!$A$1:$K$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Posting!$A$1:$K$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Posting!#REF!</definedName>
     <definedName name="project">#REF!</definedName>
   </definedNames>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -76,9 +76,6 @@
     <t>received June 23 bill</t>
   </si>
   <si>
-    <t>received against Chemical work (Cash took by Nadeem bhai in his profit share)</t>
-  </si>
-  <si>
     <t>UEP 17th Floor</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
   </si>
   <si>
     <t>Received Meezan CHQ against Running bill No 1 from ASA</t>
-  </si>
-  <si>
-    <t>Received against Operation and maintenance Apr 23 to Sept 23 - Bill # 008 received cash by BH and charged to sir Rehman Profit)</t>
   </si>
   <si>
     <t>Received Meezan CHQ against adhoc rec from IPC 2 from ASA</t>
@@ -403,7 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -428,9 +422,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -755,21 +746,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="8" customWidth="1"/>
     <col min="2" max="2" width="23" style="6" customWidth="1"/>
-    <col min="3" max="3" width="50" style="8" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="8" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="9" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -795,7 +786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>45101</v>
       </c>
@@ -809,7 +800,7 @@
         <v>363834</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>45104</v>
       </c>
@@ -823,7 +814,7 @@
         <v>3172324</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>45118</v>
       </c>
@@ -837,7 +828,7 @@
         <v>359992</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>45119</v>
       </c>
@@ -851,7 +842,7 @@
         <v>188568</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>45120</v>
       </c>
@@ -865,51 +856,51 @@
         <v>337081</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>45120</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="13" t="s">
+        <v>45149</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="10">
-        <v>575000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9">
+        <v>10150085</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>45149</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="9">
-        <v>10150085</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>333522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>45149</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="9">
-        <v>333522</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>359992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>45149</v>
+        <v>45178</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>7</v>
@@ -921,133 +912,133 @@
         <v>359992</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>45178</v>
+        <v>45191</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="9">
-        <v>359992</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>333522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>45191</v>
+        <v>45201</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="9">
-        <v>333522</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>45201</v>
+        <v>45208</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="9">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>333522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="9">
-        <v>333522</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3144567</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>45209</v>
+        <v>45216</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="9">
-        <v>3144567</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>359992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>45216</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="9">
-        <v>359992</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8710033</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <v>45216</v>
+        <v>45225</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="9">
-        <v>8710033</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="12" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16172173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <v>45225</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="13" t="s">
+        <v>45238</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="10">
-        <v>2352000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="9">
+        <v>186430</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
-        <v>45225</v>
+        <v>45238</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="9">
-        <v>16172173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>186430</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>45238</v>
       </c>
@@ -1061,51 +1052,51 @@
         <v>186430</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>45238</v>
+        <v>45241</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="9">
-        <v>186430</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>359992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>45238</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>4</v>
+        <v>45260</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="9">
-        <v>186430</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="D22" s="10">
+        <v>333522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>45241</v>
-      </c>
-      <c r="B23" s="6" t="s">
+        <v>45272</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="9">
+        <v>37</v>
+      </c>
+      <c r="D23" s="10">
         <v>359992</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>45260</v>
+        <v>45286</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>6</v>
@@ -1119,49 +1110,50 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>45272</v>
+        <v>45287</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="10">
-        <v>359992</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>561910</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>45286</v>
+        <v>45287</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="10">
+        <v>112665</v>
+      </c>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>45289</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="10">
-        <v>333522</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
-        <v>45287</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>41</v>
+      <c r="C27" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="D27" s="10">
-        <v>561910</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>369964</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>45287</v>
+        <v>45295</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>35</v>
@@ -1170,152 +1162,151 @@
         <v>43</v>
       </c>
       <c r="D28" s="10">
-        <v>112665</v>
-      </c>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+        <v>2920000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>45289</v>
+        <v>45295</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D29" s="10">
-        <v>369964</v>
+        <v>7925552</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>45295</v>
+        <v>45307</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="10">
-        <v>2920000</v>
+        <v>1012687</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>45295</v>
+        <v>45307</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="10">
-        <v>7925552</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>467659</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>45307</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D32" s="10">
-        <v>1012687</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>45307</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D33" s="10">
-        <v>467659</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>45307</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D34" s="10">
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>45307</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D35" s="10">
-        <v>650000</v>
+        <v>359992</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
-        <v>45307</v>
+        <v>45315</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C36" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1013457</v>
+      </c>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>45324</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="10">
+        <v>246087</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>45324</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="10">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
-        <v>45307</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="10">
-        <v>359992</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
-        <v>45315</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="D38" s="10">
-        <v>1013457</v>
-      </c>
-      <c r="E38" s="14"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>246087</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>45324</v>
       </c>
@@ -1329,7 +1320,7 @@
         <v>246087</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>45324</v>
       </c>
@@ -1340,192 +1331,192 @@
         <v>54</v>
       </c>
       <c r="D40" s="10">
+        <v>178973</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>45329</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="10">
+        <v>677861</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>45332</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="10">
+        <v>333522</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>45336</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="10">
+        <v>359992</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>45344</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="10">
         <v>246087</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
-        <v>45324</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="10">
-        <v>246087</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
-        <v>45324</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="10">
-        <v>178973</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
-        <v>45329</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="11" t="s">
+    <row r="45" spans="1:5" ht="24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>45345</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="10">
+        <v>1460000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>45359</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="10">
+        <v>8053923</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>45359</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="10">
-        <v>677861</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
-        <v>45332</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="10">
-        <v>333522</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
-        <v>45336</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" s="10">
+      <c r="D47" s="10">
         <v>359992</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
-        <v>45344</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="10">
-        <v>246087</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
-        <v>45345</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="10">
-        <v>1460000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
-        <v>45359</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="13" t="s">
+        <v>45381</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="10">
-        <v>8053923</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D48" s="9">
+        <v>3840424</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
-        <v>45359</v>
+        <v>45387</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D49" s="10">
         <v>359992</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
-        <v>45381</v>
+        <v>45414</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D50" s="9">
-        <v>3840424</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
-        <v>45387</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="11" t="s">
+        <v>45414</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="9">
+        <v>924000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <v>45421</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="10">
-        <v>359992</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
-        <v>45414</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="8" t="s">
+      <c r="D52" s="10">
+        <v>333522</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>45421</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="9">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
-        <v>45414</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="9">
-        <v>924000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D53" s="10">
+        <v>333522</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>45421</v>
       </c>
@@ -1539,91 +1530,91 @@
         <v>333522</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
-        <v>45421</v>
+        <v>45422</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>70</v>
       </c>
       <c r="D55" s="10">
-        <v>333522</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10328660</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
-        <v>45421</v>
+        <v>45422</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>71</v>
       </c>
       <c r="D56" s="10">
-        <v>333522</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>359992</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
-        <v>45422</v>
+        <v>45423</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>72</v>
       </c>
       <c r="D57" s="10">
-        <v>10328660</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>93000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
-        <v>45422</v>
+        <v>45436</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="12" t="s">
         <v>73</v>
       </c>
       <c r="D58" s="10">
-        <v>359992</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1520392</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
-        <v>45423</v>
+        <v>45441</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D59" s="10">
-        <v>93000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>246087</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
-        <v>45436</v>
+        <v>45441</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="13" t="s">
-        <v>75</v>
-      </c>
       <c r="D60" s="10">
-        <v>1520392</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>246087</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>45441</v>
       </c>
@@ -1637,70 +1628,48 @@
         <v>246087</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
-        <v>45441</v>
+        <v>45444</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D62" s="10">
-        <v>246087</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3456382</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
-        <v>45441</v>
+        <v>45450</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D63" s="10">
-        <v>246087</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
-        <v>45444</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64" s="10">
-        <v>3456382</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="5">
-        <v>45450</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D65" s="10">
         <v>10666429</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D66" s="9">
-        <f>SUM(D2:D65)</f>
-        <v>113793112</v>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D64" s="9">
+        <f>SUM(D2:D63)</f>
+        <v>110866112</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K66" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:K64" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Food Court (Hydery)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0" header="0.3" footer="0.3"/>
@@ -1718,677 +1687,677 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="57.140625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
-        <v>17</v>
+      <c r="B7" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
-        <v>22</v>
+      <c r="B13" s="16" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
-        <v>59</v>
+      <c r="B14" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
-        <v>76</v>
+      <c r="B15" s="16" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="18"/>
+      <c r="B17" s="17"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="18"/>
+      <c r="B18" s="17"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="18"/>
+      <c r="B19" s="17"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="18"/>
+      <c r="B20" s="17"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="18"/>
+      <c r="B21" s="17"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="18"/>
+      <c r="B22" s="17"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="18"/>
+      <c r="B23" s="17"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="18"/>
+      <c r="B24" s="17"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="18"/>
+      <c r="B25" s="17"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="18"/>
+      <c r="B26" s="17"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="18"/>
+      <c r="B27" s="17"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="18"/>
+      <c r="B28" s="17"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="18"/>
+      <c r="B29" s="17"/>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="18"/>
+      <c r="B30" s="17"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="18"/>
+      <c r="B31" s="17"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="18"/>
+      <c r="B32" s="17"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="18"/>
+      <c r="B33" s="17"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="18"/>
+      <c r="B34" s="17"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="18"/>
+      <c r="B35" s="17"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="18"/>
+      <c r="B36" s="17"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="18"/>
+      <c r="B37" s="17"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="18"/>
+      <c r="B38" s="17"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="18"/>
+      <c r="B39" s="17"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="18"/>
+      <c r="B40" s="17"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="18"/>
+      <c r="B41" s="17"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="18"/>
+      <c r="B42" s="17"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="18"/>
+      <c r="B43" s="17"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="18"/>
+      <c r="B44" s="17"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="18"/>
+      <c r="B45" s="17"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="18"/>
+      <c r="B46" s="17"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="18"/>
+      <c r="B47" s="17"/>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="18"/>
+      <c r="B48" s="17"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="18"/>
+      <c r="B49" s="17"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="18"/>
+      <c r="B50" s="17"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="18"/>
+      <c r="B51" s="17"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="18"/>
+      <c r="B52" s="17"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="18"/>
+      <c r="B53" s="17"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="18"/>
+      <c r="B54" s="17"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="18"/>
+      <c r="B55" s="17"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="18"/>
+      <c r="B56" s="17"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="18"/>
+      <c r="B57" s="17"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="18"/>
+      <c r="B58" s="17"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="18"/>
+      <c r="B59" s="17"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="18"/>
+      <c r="B60" s="17"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="18"/>
+      <c r="B61" s="17"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="18"/>
+      <c r="B62" s="17"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="18"/>
+      <c r="B63" s="17"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="18"/>
+      <c r="B64" s="17"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="18"/>
+      <c r="B65" s="17"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="18"/>
+      <c r="B66" s="17"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="18"/>
+      <c r="B67" s="17"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="18"/>
+      <c r="B68" s="17"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="18"/>
+      <c r="B69" s="17"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="18"/>
+      <c r="B70" s="17"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="18"/>
+      <c r="B71" s="17"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="18"/>
+      <c r="B72" s="17"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" s="18"/>
+      <c r="B73" s="17"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="18"/>
+      <c r="B74" s="17"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="18"/>
+      <c r="B75" s="17"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="18"/>
+      <c r="B76" s="17"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="18"/>
+      <c r="B77" s="17"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="18"/>
+      <c r="B78" s="17"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="18"/>
+      <c r="B79" s="17"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="18"/>
+      <c r="B80" s="17"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="18"/>
+      <c r="B81" s="17"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="18"/>
+      <c r="B82" s="17"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="18"/>
+      <c r="B83" s="17"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="18"/>
+      <c r="B84" s="17"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="18"/>
+      <c r="B85" s="17"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="18"/>
+      <c r="B86" s="17"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="18"/>
+      <c r="B87" s="17"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="18"/>
+      <c r="B88" s="17"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="18"/>
+      <c r="B89" s="17"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="18"/>
+      <c r="B90" s="17"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="18"/>
+      <c r="B91" s="17"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="18"/>
+      <c r="B92" s="17"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="18"/>
+      <c r="B93" s="17"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="18"/>
+      <c r="B94" s="17"/>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B95" s="18"/>
+      <c r="B95" s="17"/>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B96" s="18"/>
+      <c r="B96" s="17"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B97" s="18"/>
+      <c r="B97" s="17"/>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B98" s="18"/>
+      <c r="B98" s="17"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B99" s="18"/>
+      <c r="B99" s="17"/>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B100" s="18"/>
+      <c r="B100" s="17"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B101" s="18"/>
+      <c r="B101" s="17"/>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B102" s="18"/>
+      <c r="B102" s="17"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B103" s="18"/>
+      <c r="B103" s="17"/>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B104" s="18"/>
+      <c r="B104" s="17"/>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B105" s="18"/>
+      <c r="B105" s="17"/>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B106" s="18"/>
+      <c r="B106" s="17"/>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B107" s="18"/>
+      <c r="B107" s="17"/>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B108" s="18"/>
+      <c r="B108" s="17"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B109" s="18"/>
+      <c r="B109" s="17"/>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B110" s="18"/>
+      <c r="B110" s="17"/>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B111" s="18"/>
+      <c r="B111" s="17"/>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B112" s="18"/>
+      <c r="B112" s="17"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B113" s="18"/>
+      <c r="B113" s="17"/>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B114" s="18"/>
+      <c r="B114" s="17"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B115" s="18"/>
+      <c r="B115" s="17"/>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B116" s="18"/>
+      <c r="B116" s="17"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B117" s="18"/>
+      <c r="B117" s="17"/>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B118" s="18"/>
+      <c r="B118" s="17"/>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B119" s="18"/>
+      <c r="B119" s="17"/>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B120" s="18"/>
+      <c r="B120" s="17"/>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B121" s="18"/>
+      <c r="B121" s="17"/>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B122" s="18"/>
+      <c r="B122" s="17"/>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B123" s="18"/>
+      <c r="B123" s="17"/>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B124" s="18"/>
+      <c r="B124" s="17"/>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B125" s="18"/>
+      <c r="B125" s="17"/>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B126" s="18"/>
+      <c r="B126" s="17"/>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B127" s="18"/>
+      <c r="B127" s="17"/>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B128" s="18"/>
+      <c r="B128" s="17"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B129" s="18"/>
+      <c r="B129" s="17"/>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B130" s="18"/>
+      <c r="B130" s="17"/>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B131" s="18"/>
+      <c r="B131" s="17"/>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B132" s="18"/>
+      <c r="B132" s="17"/>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B133" s="18"/>
+      <c r="B133" s="17"/>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B134" s="18"/>
+      <c r="B134" s="17"/>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B135" s="18"/>
+      <c r="B135" s="17"/>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B136" s="18"/>
+      <c r="B136" s="17"/>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B137" s="18"/>
+      <c r="B137" s="17"/>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B138" s="18"/>
+      <c r="B138" s="17"/>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B139" s="18"/>
+      <c r="B139" s="17"/>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B140" s="18"/>
+      <c r="B140" s="17"/>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B141" s="18"/>
+      <c r="B141" s="17"/>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B142" s="18"/>
+      <c r="B142" s="17"/>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B143" s="18"/>
+      <c r="B143" s="17"/>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B144" s="18"/>
+      <c r="B144" s="17"/>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B145" s="18"/>
+      <c r="B145" s="17"/>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B146" s="18"/>
+      <c r="B146" s="17"/>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B147" s="18"/>
+      <c r="B147" s="17"/>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B148" s="18"/>
+      <c r="B148" s="17"/>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B149" s="18"/>
+      <c r="B149" s="17"/>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B150" s="18"/>
+      <c r="B150" s="17"/>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B151" s="18"/>
+      <c r="B151" s="17"/>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B152" s="18"/>
+      <c r="B152" s="17"/>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B153" s="18"/>
+      <c r="B153" s="17"/>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B154" s="18"/>
+      <c r="B154" s="17"/>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B155" s="18"/>
+      <c r="B155" s="17"/>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B156" s="18"/>
+      <c r="B156" s="17"/>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B157" s="18"/>
+      <c r="B157" s="17"/>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B158" s="18"/>
+      <c r="B158" s="17"/>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B159" s="18"/>
+      <c r="B159" s="17"/>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B160" s="18"/>
+      <c r="B160" s="17"/>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B161" s="18"/>
+      <c r="B161" s="17"/>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B162" s="18"/>
+      <c r="B162" s="17"/>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B163" s="18"/>
+      <c r="B163" s="17"/>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B164" s="18"/>
+      <c r="B164" s="17"/>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B165" s="18"/>
+      <c r="B165" s="17"/>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B166" s="18"/>
+      <c r="B166" s="17"/>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B167" s="18"/>
+      <c r="B167" s="17"/>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B168" s="18"/>
+      <c r="B168" s="17"/>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B169" s="18"/>
+      <c r="B169" s="17"/>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B170" s="18"/>
+      <c r="B170" s="17"/>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B171" s="18"/>
+      <c r="B171" s="17"/>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B172" s="18"/>
+      <c r="B172" s="17"/>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B173" s="18"/>
+      <c r="B173" s="17"/>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B174" s="18"/>
+      <c r="B174" s="17"/>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B175" s="18"/>
+      <c r="B175" s="17"/>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B176" s="18"/>
+      <c r="B176" s="17"/>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B177" s="18"/>
+      <c r="B177" s="17"/>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B178" s="18"/>
+      <c r="B178" s="17"/>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B179" s="18"/>
+      <c r="B179" s="17"/>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B180" s="18"/>
+      <c r="B180" s="17"/>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B181" s="18"/>
+      <c r="B181" s="17"/>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B182" s="18"/>
+      <c r="B182" s="17"/>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B183" s="18"/>
+      <c r="B183" s="17"/>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B184" s="18"/>
+      <c r="B184" s="17"/>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B185" s="18"/>
+      <c r="B185" s="17"/>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B186" s="18"/>
+      <c r="B186" s="17"/>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B187" s="18"/>
+      <c r="B187" s="17"/>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B188" s="18"/>
+      <c r="B188" s="17"/>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B189" s="18"/>
+      <c r="B189" s="17"/>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B190" s="18"/>
+      <c r="B190" s="17"/>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B191" s="18"/>
+      <c r="B191" s="17"/>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B192" s="18"/>
+      <c r="B192" s="17"/>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B193" s="18"/>
+      <c r="B193" s="17"/>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B194" s="18"/>
+      <c r="B194" s="17"/>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B195" s="18"/>
+      <c r="B195" s="17"/>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B196" s="18"/>
+      <c r="B196" s="17"/>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B197" s="18"/>
+      <c r="B197" s="17"/>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B198" s="18"/>
+      <c r="B198" s="17"/>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B199" s="18"/>
+      <c r="B199" s="17"/>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B200" s="18"/>
+      <c r="B200" s="17"/>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B201" s="18"/>
+      <c r="B201" s="17"/>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B202" s="18"/>
+      <c r="B202" s="17"/>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B203" s="18"/>
+      <c r="B203" s="17"/>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B204" s="18"/>
+      <c r="B204" s="17"/>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B205" s="18"/>
+      <c r="B205" s="17"/>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B206" s="18"/>
+      <c r="B206" s="17"/>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B207" s="18"/>
+      <c r="B207" s="17"/>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B208" s="18"/>
+      <c r="B208" s="17"/>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B209" s="18"/>
+      <c r="B209" s="17"/>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B210" s="18"/>
+      <c r="B210" s="17"/>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B211" s="18"/>
+      <c r="B211" s="17"/>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B212" s="18"/>
+      <c r="B212" s="17"/>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B213" s="18"/>
+      <c r="B213" s="17"/>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B214" s="18"/>
+      <c r="B214" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PES/Office file/Tax Period (2023 to 2024).xlsx
+++ b/PES/Office file/Tax Period (2023 to 2024).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Office file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24250063-0AFE-418C-89F6-D6BCA1B59375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888218D6-34C8-4253-A96D-11B002A0947F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{2A61253C-2AED-4507-BE01-00FD5A7BD7B4}"/>
   </bookViews>
@@ -1807,6 +1807,9 @@
     <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1814,9 +1817,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3088,39 +3088,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
     </row>
     <row r="7" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
     </row>
     <row r="9" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
@@ -3146,11 +3146,11 @@
       <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
     </row>
     <row r="17" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
@@ -10009,7 +10009,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -10030,32 +10030,32 @@
       <c r="C1" s="37"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>504</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
     </row>
     <row r="7" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="33" t="s">
         <v>503</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
     </row>
     <row r="9" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
@@ -10083,11 +10083,11 @@
       <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
     </row>
     <row r="17" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
@@ -10112,7 +10112,7 @@
         <v>87</v>
       </c>
       <c r="C18" s="18">
-        <v>22000</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -10145,7 +10145,7 @@
         <v>90</v>
       </c>
       <c r="C21" s="18">
-        <v>35000</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -10156,11 +10156,11 @@
         <v>91</v>
       </c>
       <c r="C22" s="18">
-        <v>282000</v>
+        <v>249500</v>
       </c>
       <c r="E22" s="20">
         <f>C22-600000</f>
-        <v>-318000</v>
+        <v>-350500</v>
       </c>
       <c r="H22">
         <v>27650722.062384129</v>
@@ -10174,7 +10174,7 @@
         <v>92</v>
       </c>
       <c r="C23" s="18">
-        <v>33000</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -10185,7 +10185,7 @@
         <v>93</v>
       </c>
       <c r="C24" s="18">
-        <v>10800</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="C27" s="19">
         <f>SUM(C18:C26)</f>
-        <v>437600</v>
+        <v>398600</v>
       </c>
       <c r="E27" s="20"/>
     </row>
